--- a/risikovurderinger/Risikovurdering-Aarhuswiki.xlsx
+++ b/risikovurderinger/Risikovurdering-Aarhuswiki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azkb075\github\persondata\risikovurderinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ACF22D-DC1E-4520-8090-7D82FB47F2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90995CA-520B-4404-AFC2-75E57C17B7CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEJLEDNING" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="561">
   <si>
     <t>Spørgsmål</t>
   </si>
@@ -2103,6 +2103,9 @@
   </si>
   <si>
     <t>2021-11-13</t>
+  </si>
+  <si>
+    <t>Ingen ændringer.</t>
   </si>
 </sst>
 </file>
@@ -2419,7 +2422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2724,12 +2727,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2748,12 +2745,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20189,63 +20193,63 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="154.54296875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="154.5703125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="102"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="64" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="64" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>450</v>
       </c>
@@ -20263,20 +20267,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414EDFAA-A4AC-488F-89E2-85B1D90FA2E0}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="84"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
         <v>436</v>
       </c>
@@ -20289,161 +20293,167 @@
       <c r="D7" s="85"/>
       <c r="E7" s="85"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="118">
+        <v>45049</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>560</v>
+      </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
       <c r="E27" s="44"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
       <c r="E29" s="44"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -20467,19 +20477,19 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="80.7265625" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>228</v>
       </c>
       <c r="B1" s="102"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -20488,7 +20498,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -20497,7 +20507,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -20506,7 +20516,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>109</v>
       </c>
@@ -20515,7 +20525,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>110</v>
       </c>
@@ -20524,14 +20534,14 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>111</v>
       </c>
       <c r="B7" s="3"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -20540,7 +20550,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -20549,7 +20559,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>430</v>
       </c>
@@ -20558,7 +20568,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>103</v>
       </c>
@@ -20567,7 +20577,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -20576,7 +20586,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
@@ -20625,14 +20635,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="48.26953125" style="41" customWidth="1"/>
-    <col min="3" max="7" width="9.1796875" style="40"/>
+    <col min="1" max="1" width="13.140625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="41" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="104" t="s">
         <v>236</v>
       </c>
@@ -20643,7 +20653,7 @@
       <c r="F1" s="106"/>
       <c r="G1" s="106"/>
     </row>
-    <row r="2" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>237</v>
       </c>
@@ -20654,7 +20664,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>238</v>
       </c>
@@ -20664,7 +20674,7 @@
       <c r="F3" s="38"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -20672,7 +20682,7 @@
       <c r="F4" s="38"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -20680,7 +20690,7 @@
       <c r="F5" s="38"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
@@ -20689,7 +20699,7 @@
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>259</v>
       </c>
@@ -20699,7 +20709,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -20707,7 +20717,7 @@
       <c r="F8" s="38"/>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
@@ -20715,7 +20725,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
@@ -20724,7 +20734,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>260</v>
       </c>
@@ -20737,7 +20747,7 @@
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
@@ -20746,7 +20756,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>261</v>
       </c>
@@ -20759,7 +20769,7 @@
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
@@ -20768,7 +20778,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>262</v>
       </c>
@@ -20781,7 +20791,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="39"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="37"/>
       <c r="C16" s="38"/>
@@ -20790,7 +20800,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>263</v>
       </c>
@@ -20803,7 +20813,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="39"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="37"/>
       <c r="C18" s="38"/>
@@ -20812,7 +20822,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="39"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>264</v>
       </c>
@@ -20825,7 +20835,7 @@
       <c r="F19" s="38"/>
       <c r="G19" s="39"/>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="46" t="s">
         <v>294</v>
@@ -20836,7 +20846,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="39"/>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="46" t="s">
         <v>295</v>
@@ -20847,7 +20857,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="39"/>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="37"/>
       <c r="C22" s="38"/>
@@ -20856,7 +20866,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>239</v>
       </c>
@@ -20869,7 +20879,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="39"/>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="43" t="s">
         <v>297</v>
@@ -20880,7 +20890,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="43"/>
       <c r="C25" s="38"/>
@@ -20889,7 +20899,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="39"/>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>265</v>
       </c>
@@ -20902,7 +20912,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="39"/>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="43" t="s">
         <v>298</v>
@@ -20913,7 +20923,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="43" t="s">
         <v>299</v>
@@ -20924,7 +20934,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="43" t="s">
         <v>300</v>
@@ -20935,7 +20945,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="43"/>
       <c r="C30" s="38"/>
@@ -20944,7 +20954,7 @@
       <c r="F30" s="38"/>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>266</v>
       </c>
@@ -20957,7 +20967,7 @@
       <c r="F31" s="38"/>
       <c r="G31" s="39"/>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="43"/>
       <c r="C32" s="38"/>
@@ -20966,7 +20976,7 @@
       <c r="F32" s="38"/>
       <c r="G32" s="39"/>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>267</v>
       </c>
@@ -20979,7 +20989,7 @@
       <c r="F33" s="38"/>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="43"/>
       <c r="C34" s="38"/>
@@ -20988,7 +20998,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>253</v>
       </c>
@@ -21001,7 +21011,7 @@
       <c r="F35" s="38"/>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="43"/>
       <c r="C36" s="38"/>
@@ -21010,7 +21020,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>254</v>
       </c>
@@ -21023,7 +21033,7 @@
       <c r="F37" s="38"/>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="43" t="s">
         <v>277</v>
@@ -21034,7 +21044,7 @@
       <c r="F38" s="38"/>
       <c r="G38" s="39"/>
     </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="43"/>
       <c r="C39" s="38"/>
@@ -21043,7 +21053,7 @@
       <c r="F39" s="38"/>
       <c r="G39" s="39"/>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>255</v>
       </c>
@@ -21056,7 +21066,7 @@
       <c r="F40" s="38"/>
       <c r="G40" s="39"/>
     </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="43" t="s">
         <v>269</v>
@@ -21067,7 +21077,7 @@
       <c r="F41" s="38"/>
       <c r="G41" s="39"/>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="43" t="s">
         <v>303</v>
@@ -21078,7 +21088,7 @@
       <c r="F42" s="38"/>
       <c r="G42" s="39"/>
     </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="43"/>
       <c r="C43" s="38"/>
@@ -21087,7 +21097,7 @@
       <c r="F43" s="38"/>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>256</v>
       </c>
@@ -21100,7 +21110,7 @@
       <c r="F44" s="38"/>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="43" t="s">
         <v>305</v>
@@ -21111,7 +21121,7 @@
       <c r="F45" s="38"/>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="43"/>
       <c r="C46" s="38"/>
@@ -21120,7 +21130,7 @@
       <c r="F46" s="38"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>257</v>
       </c>
@@ -21133,7 +21143,7 @@
       <c r="F47" s="38"/>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="43" t="s">
         <v>307</v>
@@ -21144,7 +21154,7 @@
       <c r="F48" s="38"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="43"/>
       <c r="C49" s="38"/>
@@ -21153,7 +21163,7 @@
       <c r="F49" s="38"/>
       <c r="G49" s="39"/>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>258</v>
       </c>
@@ -21166,7 +21176,7 @@
       <c r="F50" s="38"/>
       <c r="G50" s="39"/>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="43" t="s">
         <v>309</v>
@@ -21177,7 +21187,7 @@
       <c r="F51" s="38"/>
       <c r="G51" s="39"/>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="43"/>
       <c r="C52" s="38"/>
@@ -21186,7 +21196,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>249</v>
       </c>
@@ -21199,7 +21209,7 @@
       <c r="F53" s="38"/>
       <c r="G53" s="39"/>
     </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="43"/>
       <c r="C54" s="38"/>
@@ -21208,7 +21218,7 @@
       <c r="F54" s="38"/>
       <c r="G54" s="39"/>
     </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>250</v>
       </c>
@@ -21221,7 +21231,7 @@
       <c r="F55" s="38"/>
       <c r="G55" s="39"/>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="43" t="s">
         <v>310</v>
@@ -21232,7 +21242,7 @@
       <c r="F56" s="38"/>
       <c r="G56" s="39"/>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="43"/>
       <c r="C57" s="38"/>
@@ -21241,7 +21251,7 @@
       <c r="F57" s="38"/>
       <c r="G57" s="39"/>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>251</v>
       </c>
@@ -21254,7 +21264,7 @@
       <c r="F58" s="38"/>
       <c r="G58" s="39"/>
     </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="43"/>
       <c r="C59" s="38"/>
@@ -21263,7 +21273,7 @@
       <c r="F59" s="38"/>
       <c r="G59" s="39"/>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>247</v>
       </c>
@@ -21276,7 +21286,7 @@
       <c r="F60" s="38"/>
       <c r="G60" s="39"/>
     </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="43"/>
       <c r="C61" s="38"/>
@@ -21285,7 +21295,7 @@
       <c r="F61" s="38"/>
       <c r="G61" s="39"/>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>244</v>
       </c>
@@ -21298,7 +21308,7 @@
       <c r="F62" s="38"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="43" t="s">
         <v>246</v>
@@ -21309,7 +21319,7 @@
       <c r="F63" s="38"/>
       <c r="G63" s="39"/>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="43" t="s">
         <v>311</v>
@@ -21320,7 +21330,7 @@
       <c r="F64" s="38"/>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
       <c r="B65" s="43"/>
       <c r="C65" s="42"/>
@@ -21329,7 +21339,7 @@
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
     </row>
-    <row r="66" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
         <v>243</v>
       </c>
@@ -21342,7 +21352,7 @@
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
     </row>
-    <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
       <c r="B67" s="43" t="s">
         <v>241</v>
@@ -21353,7 +21363,7 @@
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
     </row>
-    <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
       <c r="B68" s="43"/>
       <c r="C68" s="42"/>
@@ -21362,7 +21372,7 @@
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
     </row>
-    <row r="69" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
         <v>274</v>
       </c>
@@ -21375,7 +21385,7 @@
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
     </row>
-    <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="43"/>
       <c r="C70" s="42"/>
@@ -21384,7 +21394,7 @@
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
     </row>
-    <row r="71" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>275</v>
       </c>
@@ -21397,7 +21407,7 @@
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
     </row>
-    <row r="72" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="43" t="s">
         <v>279</v>
@@ -21408,7 +21418,7 @@
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
     </row>
-    <row r="73" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="43" t="s">
         <v>281</v>
@@ -21419,7 +21429,7 @@
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
     </row>
-    <row r="74" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="43" t="s">
         <v>282</v>
@@ -21430,7 +21440,7 @@
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
     </row>
-    <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="43" t="s">
         <v>283</v>
@@ -21441,7 +21451,7 @@
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
     </row>
-    <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="43"/>
       <c r="C76" s="42"/>
@@ -21450,7 +21460,7 @@
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
     </row>
-    <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
         <v>276</v>
       </c>
@@ -21463,7 +21473,7 @@
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
     </row>
-    <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="43"/>
       <c r="C78" s="42"/>
@@ -21472,7 +21482,7 @@
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
     </row>
-    <row r="79" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="43"/>
       <c r="C79" s="42"/>
@@ -21481,7 +21491,7 @@
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
     </row>
-    <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
       <c r="B80" s="43"/>
       <c r="C80" s="42"/>
@@ -21490,7 +21500,7 @@
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
     </row>
-    <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
       <c r="B81" s="43"/>
       <c r="C81" s="42"/>
@@ -21499,7 +21509,7 @@
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
     </row>
-    <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
       <c r="B82" s="43"/>
       <c r="C82" s="42"/>
@@ -21508,7 +21518,7 @@
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
     </row>
-    <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
       <c r="B83" s="43"/>
       <c r="C83" s="42"/>
@@ -21517,7 +21527,7 @@
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
     </row>
-    <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
       <c r="B84" s="43"/>
       <c r="C84" s="42"/>
@@ -21526,7 +21536,7 @@
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
     </row>
-    <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
       <c r="B85" s="43"/>
       <c r="C85" s="42"/>
@@ -21535,7 +21545,7 @@
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
     </row>
-    <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
       <c r="B86" s="43"/>
       <c r="C86" s="42"/>
@@ -21544,7 +21554,7 @@
       <c r="F86" s="42"/>
       <c r="G86" s="42"/>
     </row>
-    <row r="87" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
       <c r="B87" s="43"/>
       <c r="C87" s="42"/>
@@ -21553,7 +21563,7 @@
       <c r="F87" s="42"/>
       <c r="G87" s="42"/>
     </row>
-    <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
       <c r="B88" s="43"/>
       <c r="C88" s="42"/>
@@ -21562,7 +21572,7 @@
       <c r="F88" s="42"/>
       <c r="G88" s="42"/>
     </row>
-    <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
       <c r="B89" s="43"/>
       <c r="C89" s="42"/>
@@ -21571,7 +21581,7 @@
       <c r="F89" s="42"/>
       <c r="G89" s="42"/>
     </row>
-    <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
       <c r="B90" s="43"/>
       <c r="C90" s="42"/>
@@ -21580,7 +21590,7 @@
       <c r="F90" s="42"/>
       <c r="G90" s="42"/>
     </row>
-    <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="B91" s="43"/>
       <c r="C91" s="42"/>
@@ -21589,7 +21599,7 @@
       <c r="F91" s="42"/>
       <c r="G91" s="42"/>
     </row>
-    <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="43"/>
       <c r="C92" s="42"/>
@@ -21598,7 +21608,7 @@
       <c r="F92" s="42"/>
       <c r="G92" s="42"/>
     </row>
-    <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
       <c r="B93" s="43"/>
       <c r="C93" s="42"/>
@@ -21607,7 +21617,7 @@
       <c r="F93" s="42"/>
       <c r="G93" s="42"/>
     </row>
-    <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
       <c r="B94" s="43"/>
       <c r="C94" s="42"/>
@@ -21616,7 +21626,7 @@
       <c r="F94" s="42"/>
       <c r="G94" s="42"/>
     </row>
-    <row r="95" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
       <c r="B95" s="43"/>
       <c r="C95" s="42"/>
@@ -21625,7 +21635,7 @@
       <c r="F95" s="42"/>
       <c r="G95" s="42"/>
     </row>
-    <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
       <c r="B96" s="43"/>
       <c r="C96" s="42"/>
@@ -21634,7 +21644,7 @@
       <c r="F96" s="42"/>
       <c r="G96" s="42"/>
     </row>
-    <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
       <c r="B97" s="43"/>
       <c r="C97" s="42"/>
@@ -21643,7 +21653,7 @@
       <c r="F97" s="42"/>
       <c r="G97" s="42"/>
     </row>
-    <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
       <c r="B98" s="43"/>
       <c r="C98" s="42"/>
@@ -21652,7 +21662,7 @@
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
     </row>
-    <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="43"/>
       <c r="C99" s="42"/>
@@ -21661,7 +21671,7 @@
       <c r="F99" s="42"/>
       <c r="G99" s="42"/>
     </row>
-    <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
       <c r="B100" s="43"/>
       <c r="C100" s="42"/>
@@ -21687,26 +21697,26 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.453125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="50" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="39.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="23" style="2" customWidth="1"/>
-    <col min="9" max="9" width="64.1796875" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="64.140625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="103" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:78" s="4" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" s="4" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
@@ -21804,18 +21814,18 @@
       <c r="BY2" s="16"/>
       <c r="BZ2" s="16"/>
     </row>
-    <row r="3" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="110" t="s">
+    <row r="3" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="112"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -21886,7 +21896,7 @@
       <c r="BY3" s="15"/>
       <c r="BZ3" s="15"/>
     </row>
-    <row r="4" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>313</v>
       </c>
@@ -21981,7 +21991,7 @@
       <c r="BY4" s="14"/>
       <c r="BZ4" s="14"/>
     </row>
-    <row r="5" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>290</v>
       </c>
@@ -22072,7 +22082,7 @@
       <c r="BY5" s="15"/>
       <c r="BZ5" s="15"/>
     </row>
-    <row r="6" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>291</v>
       </c>
@@ -22164,7 +22174,7 @@
       <c r="BY6" s="15"/>
       <c r="BZ6" s="15"/>
     </row>
-    <row r="7" spans="1:78" s="54" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" s="54" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>315</v>
       </c>
@@ -22248,7 +22258,7 @@
       <c r="BY7" s="60"/>
       <c r="BZ7" s="60"/>
     </row>
-    <row r="8" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>315</v>
       </c>
@@ -22340,18 +22350,18 @@
       <c r="BY8" s="17"/>
       <c r="BZ8" s="17"/>
     </row>
-    <row r="9" spans="1:78" s="61" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113" t="s">
+    <row r="9" spans="1:78" s="61" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -22422,7 +22432,7 @@
       <c r="BY9" s="62"/>
       <c r="BZ9" s="62"/>
     </row>
-    <row r="10" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>286</v>
       </c>
@@ -22513,7 +22523,7 @@
       <c r="BY10" s="14"/>
       <c r="BZ10" s="14"/>
     </row>
-    <row r="11" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>287</v>
       </c>
@@ -22605,7 +22615,7 @@
       <c r="BY11" s="15"/>
       <c r="BZ11" s="15"/>
     </row>
-    <row r="12" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>288</v>
       </c>
@@ -22697,7 +22707,7 @@
       <c r="BY12" s="15"/>
       <c r="BZ12" s="15"/>
     </row>
-    <row r="13" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>315</v>
       </c>
@@ -22789,7 +22799,7 @@
       <c r="BY13" s="17"/>
       <c r="BZ13" s="17"/>
     </row>
-    <row r="14" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>315</v>
       </c>
@@ -22881,7 +22891,7 @@
       <c r="BY14" s="14"/>
       <c r="BZ14" s="14"/>
     </row>
-    <row r="15" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="107" t="s">
         <v>123</v>
       </c>
@@ -22973,7 +22983,7 @@
       <c r="BY15" s="15"/>
       <c r="BZ15" s="15"/>
     </row>
-    <row r="16" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="107"/>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -23063,7 +23073,7 @@
       <c r="BY16" s="15"/>
       <c r="BZ16" s="15"/>
     </row>
-    <row r="17" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107"/>
       <c r="B17" s="9" t="s">
         <v>19</v>
@@ -23153,7 +23163,7 @@
       <c r="BY17" s="17"/>
       <c r="BZ17" s="17"/>
     </row>
-    <row r="18" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="107"/>
       <c r="B18" s="6" t="s">
         <v>20</v>
@@ -23243,7 +23253,7 @@
       <c r="BY18" s="14"/>
       <c r="BZ18" s="14"/>
     </row>
-    <row r="19" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="107" t="s">
         <v>124</v>
       </c>
@@ -23335,7 +23345,7 @@
       <c r="BY19" s="15"/>
       <c r="BZ19" s="15"/>
     </row>
-    <row r="20" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="107"/>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -23425,7 +23435,7 @@
       <c r="BY20" s="15"/>
       <c r="BZ20" s="15"/>
     </row>
-    <row r="21" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="107"/>
       <c r="B21" s="9" t="s">
         <v>23</v>
@@ -23515,7 +23525,7 @@
       <c r="BY21" s="17"/>
       <c r="BZ21" s="17"/>
     </row>
-    <row r="22" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="107"/>
       <c r="B22" s="6" t="s">
         <v>24</v>
@@ -23605,7 +23615,7 @@
       <c r="BY22" s="14"/>
       <c r="BZ22" s="14"/>
     </row>
-    <row r="23" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="107" t="s">
         <v>125</v>
       </c>
@@ -23697,7 +23707,7 @@
       <c r="BY23" s="15"/>
       <c r="BZ23" s="15"/>
     </row>
-    <row r="24" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="107"/>
       <c r="B24" s="2" t="s">
         <v>26</v>
@@ -23787,7 +23797,7 @@
       <c r="BY24" s="15"/>
       <c r="BZ24" s="15"/>
     </row>
-    <row r="25" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="107"/>
       <c r="B25" s="9" t="s">
         <v>27</v>
@@ -23877,7 +23887,7 @@
       <c r="BY25" s="17"/>
       <c r="BZ25" s="17"/>
     </row>
-    <row r="26" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="107"/>
       <c r="B26" s="6" t="s">
         <v>28</v>
@@ -23967,7 +23977,7 @@
       <c r="BY26" s="14"/>
       <c r="BZ26" s="14"/>
     </row>
-    <row r="27" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="107" t="s">
         <v>126</v>
       </c>
@@ -24059,7 +24069,7 @@
       <c r="BY27" s="15"/>
       <c r="BZ27" s="15"/>
     </row>
-    <row r="28" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="107"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
@@ -24149,7 +24159,7 @@
       <c r="BY28" s="15"/>
       <c r="BZ28" s="15"/>
     </row>
-    <row r="29" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="107"/>
       <c r="B29" s="9" t="s">
         <v>31</v>
@@ -24239,7 +24249,7 @@
       <c r="BY29" s="17"/>
       <c r="BZ29" s="17"/>
     </row>
-    <row r="30" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="107"/>
       <c r="B30" s="6" t="s">
         <v>32</v>
@@ -24329,7 +24339,7 @@
       <c r="BY30" s="14"/>
       <c r="BZ30" s="14"/>
     </row>
-    <row r="31" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="107" t="s">
         <v>127</v>
       </c>
@@ -24421,7 +24431,7 @@
       <c r="BY31" s="15"/>
       <c r="BZ31" s="15"/>
     </row>
-    <row r="32" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="107"/>
       <c r="B32" s="2" t="s">
         <v>34</v>
@@ -24511,7 +24521,7 @@
       <c r="BY32" s="15"/>
       <c r="BZ32" s="15"/>
     </row>
-    <row r="33" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="107"/>
       <c r="B33" s="9" t="s">
         <v>35</v>
@@ -24601,7 +24611,7 @@
       <c r="BY33" s="17"/>
       <c r="BZ33" s="17"/>
     </row>
-    <row r="34" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="107"/>
       <c r="B34" s="6" t="s">
         <v>36</v>
@@ -24691,7 +24701,7 @@
       <c r="BY34" s="14"/>
       <c r="BZ34" s="14"/>
     </row>
-    <row r="35" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="107" t="s">
         <v>128</v>
       </c>
@@ -24783,7 +24793,7 @@
       <c r="BY35" s="15"/>
       <c r="BZ35" s="15"/>
     </row>
-    <row r="36" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="107"/>
       <c r="B36" s="2" t="s">
         <v>38</v>
@@ -24873,7 +24883,7 @@
       <c r="BY36" s="15"/>
       <c r="BZ36" s="15"/>
     </row>
-    <row r="37" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="107"/>
       <c r="B37" s="9" t="s">
         <v>39</v>
@@ -24963,7 +24973,7 @@
       <c r="BY37" s="17"/>
       <c r="BZ37" s="17"/>
     </row>
-    <row r="38" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="107"/>
       <c r="B38" s="6" t="s">
         <v>40</v>
@@ -25053,7 +25063,7 @@
       <c r="BY38" s="14"/>
       <c r="BZ38" s="14"/>
     </row>
-    <row r="39" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="107" t="s">
         <v>129</v>
       </c>
@@ -25145,8 +25155,8 @@
       <c r="BY39" s="15"/>
       <c r="BZ39" s="15"/>
     </row>
-    <row r="40" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="108"/>
+    <row r="40" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="114"/>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
@@ -25235,8 +25245,8 @@
       <c r="BY40" s="15"/>
       <c r="BZ40" s="15"/>
     </row>
-    <row r="41" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="108"/>
+    <row r="41" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="114"/>
       <c r="B41" s="9" t="s">
         <v>43</v>
       </c>
@@ -25325,8 +25335,8 @@
       <c r="BY41" s="17"/>
       <c r="BZ41" s="17"/>
     </row>
-    <row r="42" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="109"/>
+    <row r="42" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="115"/>
       <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
@@ -25415,7 +25425,7 @@
       <c r="BY42" s="14"/>
       <c r="BZ42" s="14"/>
     </row>
-    <row r="43" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="107" t="s">
         <v>130</v>
       </c>
@@ -25507,7 +25517,7 @@
       <c r="BY43" s="15"/>
       <c r="BZ43" s="15"/>
     </row>
-    <row r="44" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="107"/>
       <c r="B44" s="2" t="s">
         <v>46</v>
@@ -25597,7 +25607,7 @@
       <c r="BY44" s="15"/>
       <c r="BZ44" s="15"/>
     </row>
-    <row r="45" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="107"/>
       <c r="B45" s="9" t="s">
         <v>47</v>
@@ -25687,7 +25697,7 @@
       <c r="BY45" s="17"/>
       <c r="BZ45" s="17"/>
     </row>
-    <row r="46" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="107"/>
       <c r="B46" s="6" t="s">
         <v>48</v>
@@ -25777,7 +25787,7 @@
       <c r="BY46" s="14"/>
       <c r="BZ46" s="14"/>
     </row>
-    <row r="47" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="107" t="s">
         <v>131</v>
       </c>
@@ -25869,7 +25879,7 @@
       <c r="BY47" s="15"/>
       <c r="BZ47" s="15"/>
     </row>
-    <row r="48" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="107"/>
       <c r="B48" s="2" t="s">
         <v>50</v>
@@ -25959,7 +25969,7 @@
       <c r="BY48" s="15"/>
       <c r="BZ48" s="15"/>
     </row>
-    <row r="49" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="107"/>
       <c r="B49" s="9" t="s">
         <v>51</v>
@@ -26049,7 +26059,7 @@
       <c r="BY49" s="17"/>
       <c r="BZ49" s="17"/>
     </row>
-    <row r="50" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="107"/>
       <c r="B50" s="6" t="s">
         <v>52</v>
@@ -26139,7 +26149,7 @@
       <c r="BY50" s="14"/>
       <c r="BZ50" s="14"/>
     </row>
-    <row r="51" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="107" t="s">
         <v>132</v>
       </c>
@@ -26231,7 +26241,7 @@
       <c r="BY51" s="15"/>
       <c r="BZ51" s="15"/>
     </row>
-    <row r="52" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="107"/>
       <c r="B52" s="2" t="s">
         <v>54</v>
@@ -26321,7 +26331,7 @@
       <c r="BY52" s="15"/>
       <c r="BZ52" s="15"/>
     </row>
-    <row r="53" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="107"/>
       <c r="B53" s="9" t="s">
         <v>55</v>
@@ -26411,7 +26421,7 @@
       <c r="BY53" s="17"/>
       <c r="BZ53" s="17"/>
     </row>
-    <row r="54" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="107"/>
       <c r="B54" s="6" t="s">
         <v>56</v>
@@ -26501,7 +26511,7 @@
       <c r="BY54" s="14"/>
       <c r="BZ54" s="14"/>
     </row>
-    <row r="55" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="107" t="s">
         <v>133</v>
       </c>
@@ -26593,7 +26603,7 @@
       <c r="BY55" s="15"/>
       <c r="BZ55" s="15"/>
     </row>
-    <row r="56" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="107"/>
       <c r="B56" s="2" t="s">
         <v>58</v>
@@ -26683,7 +26693,7 @@
       <c r="BY56" s="15"/>
       <c r="BZ56" s="15"/>
     </row>
-    <row r="57" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="107"/>
       <c r="B57" s="9" t="s">
         <v>59</v>
@@ -26773,7 +26783,7 @@
       <c r="BY57" s="17"/>
       <c r="BZ57" s="17"/>
     </row>
-    <row r="58" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="107"/>
       <c r="B58" s="6" t="s">
         <v>60</v>
@@ -26863,7 +26873,7 @@
       <c r="BY58" s="14"/>
       <c r="BZ58" s="14"/>
     </row>
-    <row r="59" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="107" t="s">
         <v>134</v>
       </c>
@@ -26955,7 +26965,7 @@
       <c r="BY59" s="15"/>
       <c r="BZ59" s="15"/>
     </row>
-    <row r="60" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="107"/>
       <c r="B60" s="2" t="s">
         <v>62</v>
@@ -27045,7 +27055,7 @@
       <c r="BY60" s="15"/>
       <c r="BZ60" s="15"/>
     </row>
-    <row r="61" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="107"/>
       <c r="B61" s="9" t="s">
         <v>63</v>
@@ -27135,7 +27145,7 @@
       <c r="BY61" s="17"/>
       <c r="BZ61" s="17"/>
     </row>
-    <row r="62" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="107"/>
       <c r="B62" s="6" t="s">
         <v>64</v>
@@ -27225,7 +27235,7 @@
       <c r="BY62" s="14"/>
       <c r="BZ62" s="14"/>
     </row>
-    <row r="63" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="107" t="s">
         <v>135</v>
       </c>
@@ -27317,7 +27327,7 @@
       <c r="BY63" s="15"/>
       <c r="BZ63" s="15"/>
     </row>
-    <row r="64" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="107"/>
       <c r="B64" s="2" t="s">
         <v>66</v>
@@ -27407,7 +27417,7 @@
       <c r="BY64" s="15"/>
       <c r="BZ64" s="15"/>
     </row>
-    <row r="65" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="107"/>
       <c r="B65" s="9" t="s">
         <v>67</v>
@@ -27497,7 +27507,7 @@
       <c r="BY65" s="17"/>
       <c r="BZ65" s="17"/>
     </row>
-    <row r="66" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="107"/>
       <c r="B66" s="6" t="s">
         <v>68</v>
@@ -27587,7 +27597,7 @@
       <c r="BY66" s="14"/>
       <c r="BZ66" s="14"/>
     </row>
-    <row r="67" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="107" t="s">
         <v>136</v>
       </c>
@@ -27679,7 +27689,7 @@
       <c r="BY67" s="15"/>
       <c r="BZ67" s="15"/>
     </row>
-    <row r="68" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="107"/>
       <c r="B68" s="2" t="s">
         <v>70</v>
@@ -27769,7 +27779,7 @@
       <c r="BY68" s="15"/>
       <c r="BZ68" s="15"/>
     </row>
-    <row r="69" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="107"/>
       <c r="B69" s="9" t="s">
         <v>71</v>
@@ -27859,7 +27869,7 @@
       <c r="BY69" s="17"/>
       <c r="BZ69" s="17"/>
     </row>
-    <row r="70" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="107"/>
       <c r="B70" s="6" t="s">
         <v>72</v>
@@ -27949,7 +27959,7 @@
       <c r="BY70" s="14"/>
       <c r="BZ70" s="14"/>
     </row>
-    <row r="71" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="107" t="s">
         <v>137</v>
       </c>
@@ -28041,7 +28051,7 @@
       <c r="BY71" s="15"/>
       <c r="BZ71" s="15"/>
     </row>
-    <row r="72" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="107"/>
       <c r="B72" s="2" t="s">
         <v>74</v>
@@ -28131,7 +28141,7 @@
       <c r="BY72" s="15"/>
       <c r="BZ72" s="15"/>
     </row>
-    <row r="73" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="107"/>
       <c r="B73" s="9" t="s">
         <v>75</v>
@@ -28221,7 +28231,7 @@
       <c r="BY73" s="17"/>
       <c r="BZ73" s="17"/>
     </row>
-    <row r="74" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="107"/>
       <c r="B74" s="6" t="s">
         <v>76</v>
@@ -28311,7 +28321,7 @@
       <c r="BY74" s="14"/>
       <c r="BZ74" s="14"/>
     </row>
-    <row r="75" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="107" t="s">
         <v>138</v>
       </c>
@@ -28403,7 +28413,7 @@
       <c r="BY75" s="15"/>
       <c r="BZ75" s="15"/>
     </row>
-    <row r="76" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="107"/>
       <c r="B76" s="2" t="s">
         <v>78</v>
@@ -28495,7 +28505,7 @@
       <c r="BY76" s="15"/>
       <c r="BZ76" s="15"/>
     </row>
-    <row r="77" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="107"/>
       <c r="B77" s="9" t="s">
         <v>79</v>
@@ -28585,7 +28595,7 @@
       <c r="BY77" s="17"/>
       <c r="BZ77" s="17"/>
     </row>
-    <row r="78" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="107"/>
       <c r="B78" s="6" t="s">
         <v>80</v>
@@ -28675,7 +28685,7 @@
       <c r="BY78" s="14"/>
       <c r="BZ78" s="14"/>
     </row>
-    <row r="79" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="107" t="s">
         <v>139</v>
       </c>
@@ -28767,7 +28777,7 @@
       <c r="BY79" s="15"/>
       <c r="BZ79" s="15"/>
     </row>
-    <row r="80" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="107"/>
       <c r="B80" s="2" t="s">
         <v>82</v>
@@ -28857,7 +28867,7 @@
       <c r="BY80" s="15"/>
       <c r="BZ80" s="15"/>
     </row>
-    <row r="81" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="107"/>
       <c r="B81" s="9" t="s">
         <v>83</v>
@@ -28947,7 +28957,7 @@
       <c r="BY81" s="17"/>
       <c r="BZ81" s="17"/>
     </row>
-    <row r="82" spans="1:78" s="6" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:78" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="107"/>
       <c r="B82" s="6" t="s">
         <v>84</v>
@@ -29037,7 +29047,7 @@
       <c r="BY82" s="14"/>
       <c r="BZ82" s="14"/>
     </row>
-    <row r="83" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="107" t="s">
         <v>140</v>
       </c>
@@ -29129,7 +29139,7 @@
       <c r="BY83" s="15"/>
       <c r="BZ83" s="15"/>
     </row>
-    <row r="84" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="107"/>
       <c r="B84" s="2" t="s">
         <v>86</v>
@@ -29219,7 +29229,7 @@
       <c r="BY84" s="15"/>
       <c r="BZ84" s="15"/>
     </row>
-    <row r="85" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="107"/>
       <c r="B85" s="9" t="s">
         <v>87</v>
@@ -29309,7 +29319,7 @@
       <c r="BY85" s="15"/>
       <c r="BZ85" s="15"/>
     </row>
-    <row r="86" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="107"/>
       <c r="B86" s="6" t="s">
         <v>145</v>
@@ -29399,7 +29409,7 @@
       <c r="BY86" s="15"/>
       <c r="BZ86" s="15"/>
     </row>
-    <row r="87" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="107" t="s">
         <v>205</v>
       </c>
@@ -29491,7 +29501,7 @@
       <c r="BY87" s="15"/>
       <c r="BZ87" s="15"/>
     </row>
-    <row r="88" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="107"/>
       <c r="B88" s="6" t="s">
         <v>147</v>
@@ -29581,7 +29591,7 @@
       <c r="BY88" s="15"/>
       <c r="BZ88" s="15"/>
     </row>
-    <row r="89" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="107"/>
       <c r="B89" s="6" t="s">
         <v>148</v>
@@ -29671,7 +29681,7 @@
       <c r="BY89" s="15"/>
       <c r="BZ89" s="15"/>
     </row>
-    <row r="90" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="107"/>
       <c r="B90" s="6" t="s">
         <v>149</v>
@@ -29761,7 +29771,7 @@
       <c r="BY90" s="15"/>
       <c r="BZ90" s="15"/>
     </row>
-    <row r="91" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="107" t="s">
         <v>206</v>
       </c>
@@ -29853,7 +29863,7 @@
       <c r="BY91" s="15"/>
       <c r="BZ91" s="15"/>
     </row>
-    <row r="92" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="107"/>
       <c r="B92" s="6" t="s">
         <v>151</v>
@@ -29943,7 +29953,7 @@
       <c r="BY92" s="15"/>
       <c r="BZ92" s="15"/>
     </row>
-    <row r="93" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="107"/>
       <c r="B93" s="6" t="s">
         <v>152</v>
@@ -30033,7 +30043,7 @@
       <c r="BY93" s="15"/>
       <c r="BZ93" s="15"/>
     </row>
-    <row r="94" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="107"/>
       <c r="B94" s="6" t="s">
         <v>153</v>
@@ -30123,7 +30133,7 @@
       <c r="BY94" s="15"/>
       <c r="BZ94" s="15"/>
     </row>
-    <row r="95" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="107" t="s">
         <v>207</v>
       </c>
@@ -30215,7 +30225,7 @@
       <c r="BY95" s="15"/>
       <c r="BZ95" s="15"/>
     </row>
-    <row r="96" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="107"/>
       <c r="B96" s="6" t="s">
         <v>155</v>
@@ -30305,7 +30315,7 @@
       <c r="BY96" s="15"/>
       <c r="BZ96" s="15"/>
     </row>
-    <row r="97" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="107"/>
       <c r="B97" s="6" t="s">
         <v>156</v>
@@ -30395,7 +30405,7 @@
       <c r="BY97" s="15"/>
       <c r="BZ97" s="15"/>
     </row>
-    <row r="98" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="107"/>
       <c r="B98" s="6" t="s">
         <v>157</v>
@@ -30485,7 +30495,7 @@
       <c r="BY98" s="15"/>
       <c r="BZ98" s="15"/>
     </row>
-    <row r="99" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="107" t="s">
         <v>208</v>
       </c>
@@ -30577,7 +30587,7 @@
       <c r="BY99" s="15"/>
       <c r="BZ99" s="15"/>
     </row>
-    <row r="100" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="107"/>
       <c r="B100" s="6" t="s">
         <v>159</v>
@@ -30667,7 +30677,7 @@
       <c r="BY100" s="15"/>
       <c r="BZ100" s="15"/>
     </row>
-    <row r="101" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="107"/>
       <c r="B101" s="6" t="s">
         <v>160</v>
@@ -30757,7 +30767,7 @@
       <c r="BY101" s="15"/>
       <c r="BZ101" s="15"/>
     </row>
-    <row r="102" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="107"/>
       <c r="B102" s="6" t="s">
         <v>161</v>
@@ -30847,7 +30857,7 @@
       <c r="BY102" s="15"/>
       <c r="BZ102" s="15"/>
     </row>
-    <row r="103" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="107" t="s">
         <v>209</v>
       </c>
@@ -30939,7 +30949,7 @@
       <c r="BY103" s="15"/>
       <c r="BZ103" s="15"/>
     </row>
-    <row r="104" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="107"/>
       <c r="B104" s="6" t="s">
         <v>163</v>
@@ -31029,7 +31039,7 @@
       <c r="BY104" s="15"/>
       <c r="BZ104" s="15"/>
     </row>
-    <row r="105" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="107"/>
       <c r="B105" s="6" t="s">
         <v>164</v>
@@ -31119,7 +31129,7 @@
       <c r="BY105" s="15"/>
       <c r="BZ105" s="15"/>
     </row>
-    <row r="106" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="107"/>
       <c r="B106" s="6" t="s">
         <v>165</v>
@@ -31209,7 +31219,7 @@
       <c r="BY106" s="15"/>
       <c r="BZ106" s="15"/>
     </row>
-    <row r="107" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="107" t="s">
         <v>210</v>
       </c>
@@ -31301,7 +31311,7 @@
       <c r="BY107" s="15"/>
       <c r="BZ107" s="15"/>
     </row>
-    <row r="108" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="107"/>
       <c r="B108" s="6" t="s">
         <v>167</v>
@@ -31391,7 +31401,7 @@
       <c r="BY108" s="15"/>
       <c r="BZ108" s="15"/>
     </row>
-    <row r="109" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="107"/>
       <c r="B109" s="6" t="s">
         <v>168</v>
@@ -31481,7 +31491,7 @@
       <c r="BY109" s="15"/>
       <c r="BZ109" s="15"/>
     </row>
-    <row r="110" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="107"/>
       <c r="B110" s="6" t="s">
         <v>169</v>
@@ -31571,7 +31581,7 @@
       <c r="BY110" s="15"/>
       <c r="BZ110" s="15"/>
     </row>
-    <row r="111" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="107" t="s">
         <v>211</v>
       </c>
@@ -31663,7 +31673,7 @@
       <c r="BY111" s="15"/>
       <c r="BZ111" s="15"/>
     </row>
-    <row r="112" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="107"/>
       <c r="B112" s="6" t="s">
         <v>171</v>
@@ -31753,7 +31763,7 @@
       <c r="BY112" s="15"/>
       <c r="BZ112" s="15"/>
     </row>
-    <row r="113" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="107"/>
       <c r="B113" s="6" t="s">
         <v>172</v>
@@ -31843,7 +31853,7 @@
       <c r="BY113" s="15"/>
       <c r="BZ113" s="15"/>
     </row>
-    <row r="114" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="107"/>
       <c r="B114" s="6" t="s">
         <v>173</v>
@@ -31933,7 +31943,7 @@
       <c r="BY114" s="15"/>
       <c r="BZ114" s="15"/>
     </row>
-    <row r="115" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="107" t="s">
         <v>212</v>
       </c>
@@ -32025,7 +32035,7 @@
       <c r="BY115" s="15"/>
       <c r="BZ115" s="15"/>
     </row>
-    <row r="116" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="107"/>
       <c r="B116" s="6" t="s">
         <v>175</v>
@@ -32115,7 +32125,7 @@
       <c r="BY116" s="15"/>
       <c r="BZ116" s="15"/>
     </row>
-    <row r="117" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="107"/>
       <c r="B117" s="6" t="s">
         <v>176</v>
@@ -32205,7 +32215,7 @@
       <c r="BY117" s="15"/>
       <c r="BZ117" s="15"/>
     </row>
-    <row r="118" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="107"/>
       <c r="B118" s="6" t="s">
         <v>177</v>
@@ -32295,7 +32305,7 @@
       <c r="BY118" s="15"/>
       <c r="BZ118" s="15"/>
     </row>
-    <row r="119" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="107" t="s">
         <v>213</v>
       </c>
@@ -32387,7 +32397,7 @@
       <c r="BY119" s="15"/>
       <c r="BZ119" s="15"/>
     </row>
-    <row r="120" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="107"/>
       <c r="B120" s="6" t="s">
         <v>179</v>
@@ -32477,7 +32487,7 @@
       <c r="BY120" s="15"/>
       <c r="BZ120" s="15"/>
     </row>
-    <row r="121" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="107"/>
       <c r="B121" s="6" t="s">
         <v>180</v>
@@ -32567,7 +32577,7 @@
       <c r="BY121" s="15"/>
       <c r="BZ121" s="15"/>
     </row>
-    <row r="122" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="107"/>
       <c r="B122" s="6" t="s">
         <v>181</v>
@@ -32657,7 +32667,7 @@
       <c r="BY122" s="15"/>
       <c r="BZ122" s="15"/>
     </row>
-    <row r="123" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="107" t="s">
         <v>214</v>
       </c>
@@ -32749,7 +32759,7 @@
       <c r="BY123" s="15"/>
       <c r="BZ123" s="15"/>
     </row>
-    <row r="124" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="107"/>
       <c r="B124" s="6" t="s">
         <v>183</v>
@@ -32839,7 +32849,7 @@
       <c r="BY124" s="15"/>
       <c r="BZ124" s="15"/>
     </row>
-    <row r="125" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="107"/>
       <c r="B125" s="6" t="s">
         <v>184</v>
@@ -32929,7 +32939,7 @@
       <c r="BY125" s="15"/>
       <c r="BZ125" s="15"/>
     </row>
-    <row r="126" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="107"/>
       <c r="B126" s="6" t="s">
         <v>185</v>
@@ -33019,7 +33029,7 @@
       <c r="BY126" s="15"/>
       <c r="BZ126" s="15"/>
     </row>
-    <row r="127" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="107" t="s">
         <v>215</v>
       </c>
@@ -33111,7 +33121,7 @@
       <c r="BY127" s="15"/>
       <c r="BZ127" s="15"/>
     </row>
-    <row r="128" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="107"/>
       <c r="B128" s="6" t="s">
         <v>187</v>
@@ -33201,7 +33211,7 @@
       <c r="BY128" s="15"/>
       <c r="BZ128" s="15"/>
     </row>
-    <row r="129" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="107"/>
       <c r="B129" s="6" t="s">
         <v>188</v>
@@ -33291,7 +33301,7 @@
       <c r="BY129" s="15"/>
       <c r="BZ129" s="15"/>
     </row>
-    <row r="130" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="107"/>
       <c r="B130" s="6" t="s">
         <v>189</v>
@@ -33381,7 +33391,7 @@
       <c r="BY130" s="15"/>
       <c r="BZ130" s="15"/>
     </row>
-    <row r="131" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="107" t="s">
         <v>141</v>
       </c>
@@ -33473,7 +33483,7 @@
       <c r="BY131" s="15"/>
       <c r="BZ131" s="15"/>
     </row>
-    <row r="132" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="107"/>
       <c r="B132" s="6" t="s">
         <v>191</v>
@@ -33563,7 +33573,7 @@
       <c r="BY132" s="15"/>
       <c r="BZ132" s="15"/>
     </row>
-    <row r="133" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="107"/>
       <c r="B133" s="6" t="s">
         <v>192</v>
@@ -33653,7 +33663,7 @@
       <c r="BY133" s="15"/>
       <c r="BZ133" s="15"/>
     </row>
-    <row r="134" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="107"/>
       <c r="B134" s="6" t="s">
         <v>193</v>
@@ -33743,7 +33753,7 @@
       <c r="BY134" s="15"/>
       <c r="BZ134" s="15"/>
     </row>
-    <row r="135" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="107" t="s">
         <v>142</v>
       </c>
@@ -33835,7 +33845,7 @@
       <c r="BY135" s="15"/>
       <c r="BZ135" s="15"/>
     </row>
-    <row r="136" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="107"/>
       <c r="B136" s="6" t="s">
         <v>195</v>
@@ -33925,7 +33935,7 @@
       <c r="BY136" s="15"/>
       <c r="BZ136" s="15"/>
     </row>
-    <row r="137" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="107"/>
       <c r="B137" s="6" t="s">
         <v>196</v>
@@ -34015,7 +34025,7 @@
       <c r="BY137" s="15"/>
       <c r="BZ137" s="15"/>
     </row>
-    <row r="138" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="107"/>
       <c r="B138" s="6" t="s">
         <v>197</v>
@@ -34105,7 +34115,7 @@
       <c r="BY138" s="15"/>
       <c r="BZ138" s="15"/>
     </row>
-    <row r="139" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="107" t="s">
         <v>143</v>
       </c>
@@ -34197,7 +34207,7 @@
       <c r="BY139" s="15"/>
       <c r="BZ139" s="15"/>
     </row>
-    <row r="140" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="107"/>
       <c r="B140" s="6" t="s">
         <v>199</v>
@@ -34287,7 +34297,7 @@
       <c r="BY140" s="15"/>
       <c r="BZ140" s="15"/>
     </row>
-    <row r="141" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="107"/>
       <c r="B141" s="6" t="s">
         <v>200</v>
@@ -34377,7 +34387,7 @@
       <c r="BY141" s="15"/>
       <c r="BZ141" s="15"/>
     </row>
-    <row r="142" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="107"/>
       <c r="B142" s="6" t="s">
         <v>201</v>
@@ -34467,7 +34477,7 @@
       <c r="BY142" s="15"/>
       <c r="BZ142" s="15"/>
     </row>
-    <row r="143" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="107" t="s">
         <v>144</v>
       </c>
@@ -34559,7 +34569,7 @@
       <c r="BY143" s="15"/>
       <c r="BZ143" s="15"/>
     </row>
-    <row r="144" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="107"/>
       <c r="B144" s="6" t="s">
         <v>203</v>
@@ -34649,7 +34659,7 @@
       <c r="BY144" s="15"/>
       <c r="BZ144" s="15"/>
     </row>
-    <row r="145" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="107"/>
       <c r="B145" s="6" t="s">
         <v>204</v>
@@ -34739,7 +34749,7 @@
       <c r="BY145" s="15"/>
       <c r="BZ145" s="15"/>
     </row>
-    <row r="146" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="107"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -34819,7 +34829,7 @@
       <c r="BY146" s="15"/>
       <c r="BZ146" s="15"/>
     </row>
-    <row r="147" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A147" s="52"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -34899,7 +34909,7 @@
       <c r="BY147" s="15"/>
       <c r="BZ147" s="15"/>
     </row>
-    <row r="148" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A148" s="52"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -34979,7 +34989,7 @@
       <c r="BY148" s="15"/>
       <c r="BZ148" s="15"/>
     </row>
-    <row r="149" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A149" s="52"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -35059,7 +35069,7 @@
       <c r="BY149" s="15"/>
       <c r="BZ149" s="15"/>
     </row>
-    <row r="150" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A150" s="52"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -35139,7 +35149,7 @@
       <c r="BY150" s="15"/>
       <c r="BZ150" s="15"/>
     </row>
-    <row r="151" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A151" s="52"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -35219,7 +35229,7 @@
       <c r="BY151" s="15"/>
       <c r="BZ151" s="15"/>
     </row>
-    <row r="152" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A152" s="52"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -35299,7 +35309,7 @@
       <c r="BY152" s="15"/>
       <c r="BZ152" s="15"/>
     </row>
-    <row r="153" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A153" s="52"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -35379,7 +35389,7 @@
       <c r="BY153" s="15"/>
       <c r="BZ153" s="15"/>
     </row>
-    <row r="154" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A154" s="52"/>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -35459,7 +35469,7 @@
       <c r="BY154" s="15"/>
       <c r="BZ154" s="15"/>
     </row>
-    <row r="155" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A155" s="52"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -35539,7 +35549,7 @@
       <c r="BY155" s="15"/>
       <c r="BZ155" s="15"/>
     </row>
-    <row r="156" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A156" s="52"/>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -35619,7 +35629,7 @@
       <c r="BY156" s="15"/>
       <c r="BZ156" s="15"/>
     </row>
-    <row r="157" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A157" s="52"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -35699,7 +35709,7 @@
       <c r="BY157" s="15"/>
       <c r="BZ157" s="15"/>
     </row>
-    <row r="158" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A158" s="52"/>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -35779,7 +35789,7 @@
       <c r="BY158" s="15"/>
       <c r="BZ158" s="15"/>
     </row>
-    <row r="159" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A159" s="52"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -35859,7 +35869,7 @@
       <c r="BY159" s="15"/>
       <c r="BZ159" s="15"/>
     </row>
-    <row r="160" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A160" s="52"/>
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
@@ -35939,7 +35949,7 @@
       <c r="BY160" s="15"/>
       <c r="BZ160" s="15"/>
     </row>
-    <row r="161" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A161" s="52"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -36019,7 +36029,7 @@
       <c r="BY161" s="15"/>
       <c r="BZ161" s="15"/>
     </row>
-    <row r="162" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A162" s="52"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
@@ -36099,7 +36109,7 @@
       <c r="BY162" s="15"/>
       <c r="BZ162" s="15"/>
     </row>
-    <row r="163" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A163" s="52"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -36179,7 +36189,7 @@
       <c r="BY163" s="15"/>
       <c r="BZ163" s="15"/>
     </row>
-    <row r="164" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A164" s="52"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -36259,7 +36269,7 @@
       <c r="BY164" s="15"/>
       <c r="BZ164" s="15"/>
     </row>
-    <row r="165" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A165" s="52"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -36339,7 +36349,7 @@
       <c r="BY165" s="15"/>
       <c r="BZ165" s="15"/>
     </row>
-    <row r="166" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A166" s="52"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
@@ -36419,7 +36429,7 @@
       <c r="BY166" s="15"/>
       <c r="BZ166" s="15"/>
     </row>
-    <row r="167" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A167" s="52"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -36499,7 +36509,7 @@
       <c r="BY167" s="15"/>
       <c r="BZ167" s="15"/>
     </row>
-    <row r="168" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A168" s="52"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
@@ -36579,7 +36589,7 @@
       <c r="BY168" s="15"/>
       <c r="BZ168" s="15"/>
     </row>
-    <row r="169" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A169" s="52"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -36659,7 +36669,7 @@
       <c r="BY169" s="15"/>
       <c r="BZ169" s="15"/>
     </row>
-    <row r="170" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A170" s="52"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
@@ -36739,7 +36749,7 @@
       <c r="BY170" s="15"/>
       <c r="BZ170" s="15"/>
     </row>
-    <row r="171" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A171" s="52"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -36819,7 +36829,7 @@
       <c r="BY171" s="15"/>
       <c r="BZ171" s="15"/>
     </row>
-    <row r="172" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A172" s="52"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
@@ -36899,7 +36909,7 @@
       <c r="BY172" s="15"/>
       <c r="BZ172" s="15"/>
     </row>
-    <row r="173" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A173" s="52"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
@@ -36979,7 +36989,7 @@
       <c r="BY173" s="15"/>
       <c r="BZ173" s="15"/>
     </row>
-    <row r="174" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A174" s="52"/>
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
@@ -37059,7 +37069,7 @@
       <c r="BY174" s="15"/>
       <c r="BZ174" s="15"/>
     </row>
-    <row r="175" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A175" s="52"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -37139,7 +37149,7 @@
       <c r="BY175" s="15"/>
       <c r="BZ175" s="15"/>
     </row>
-    <row r="176" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A176" s="52"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -37219,7 +37229,7 @@
       <c r="BY176" s="15"/>
       <c r="BZ176" s="15"/>
     </row>
-    <row r="177" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A177" s="52"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
@@ -37299,7 +37309,7 @@
       <c r="BY177" s="15"/>
       <c r="BZ177" s="15"/>
     </row>
-    <row r="178" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A178" s="52"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -37379,7 +37389,7 @@
       <c r="BY178" s="15"/>
       <c r="BZ178" s="15"/>
     </row>
-    <row r="179" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A179" s="52"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
@@ -37459,7 +37469,7 @@
       <c r="BY179" s="15"/>
       <c r="BZ179" s="15"/>
     </row>
-    <row r="180" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A180" s="52"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -37539,7 +37549,7 @@
       <c r="BY180" s="15"/>
       <c r="BZ180" s="15"/>
     </row>
-    <row r="181" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A181" s="52"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -37619,7 +37629,7 @@
       <c r="BY181" s="15"/>
       <c r="BZ181" s="15"/>
     </row>
-    <row r="182" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A182" s="52"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -37699,7 +37709,7 @@
       <c r="BY182" s="15"/>
       <c r="BZ182" s="15"/>
     </row>
-    <row r="183" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A183" s="52"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -37779,7 +37789,7 @@
       <c r="BY183" s="15"/>
       <c r="BZ183" s="15"/>
     </row>
-    <row r="184" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A184" s="52"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -37859,7 +37869,7 @@
       <c r="BY184" s="15"/>
       <c r="BZ184" s="15"/>
     </row>
-    <row r="185" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A185" s="52"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -37870,7 +37880,7 @@
       <c r="H185" s="15"/>
       <c r="I185" s="13"/>
     </row>
-    <row r="186" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A186" s="52"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -37881,7 +37891,7 @@
       <c r="H186" s="15"/>
       <c r="I186" s="13"/>
     </row>
-    <row r="187" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A187" s="52"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -37892,7 +37902,7 @@
       <c r="H187" s="15"/>
       <c r="I187" s="13"/>
     </row>
-    <row r="188" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A188" s="52"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
@@ -37903,47 +37913,47 @@
       <c r="H188" s="15"/>
       <c r="I188" s="13"/>
     </row>
-    <row r="189" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A189" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F4">
@@ -42179,30 +42189,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DD33E5-E8D8-40FF-A366-FF9261BBA5B4}">
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H80" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="70"/>
-    <col min="2" max="2" width="18.1796875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" style="69" customWidth="1"/>
-    <col min="4" max="4" width="49.1796875" style="69" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="36.453125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="32.1796875" style="69" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="26.1796875" style="76" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" style="44" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="44"/>
+    <col min="1" max="1" width="9.140625" style="70"/>
+    <col min="2" max="2" width="18.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="70" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="76" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>318</v>
       </c>
@@ -42237,7 +42247,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>319</v>
       </c>
@@ -42252,7 +42262,7 @@
       <c r="H2" s="75"/>
       <c r="I2" s="74"/>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
         <v>321</v>
       </c>
@@ -42278,7 +42288,7 @@
       <c r="I3" s="90"/>
       <c r="J3" s="87"/>
     </row>
-    <row r="4" spans="1:11" s="76" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>322</v>
       </c>
@@ -42305,7 +42315,7 @@
       <c r="I4" s="90"/>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>323</v>
       </c>
@@ -42332,7 +42342,7 @@
       <c r="I5" s="90"/>
       <c r="J5" s="87"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>327</v>
       </c>
@@ -42358,7 +42368,7 @@
       <c r="I6" s="90"/>
       <c r="J6" s="87"/>
     </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>329</v>
       </c>
@@ -42384,7 +42394,7 @@
       <c r="I7" s="90"/>
       <c r="J7" s="87"/>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>331</v>
       </c>
@@ -42410,7 +42420,7 @@
       <c r="I8" s="90"/>
       <c r="J8" s="87"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>332</v>
       </c>
@@ -42436,7 +42446,7 @@
       <c r="I9" s="90"/>
       <c r="J9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>333</v>
       </c>
@@ -42462,7 +42472,7 @@
       <c r="I10" s="90"/>
       <c r="J10" s="87"/>
     </row>
-    <row r="11" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>334</v>
       </c>
@@ -42489,7 +42499,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="80"/>
     </row>
-    <row r="12" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="91"/>
       <c r="B12" s="92"/>
       <c r="C12" s="93"/>
@@ -42499,7 +42509,7 @@
       <c r="I12" s="97"/>
       <c r="J12" s="98"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>335</v>
       </c>
@@ -42519,7 +42529,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="76" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="76" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>338</v>
       </c>
@@ -42546,7 +42556,7 @@
       <c r="I14" s="90"/>
       <c r="J14" s="87"/>
     </row>
-    <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>340</v>
       </c>
@@ -42572,7 +42582,7 @@
       <c r="I15" s="90"/>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>341</v>
       </c>
@@ -42599,7 +42609,7 @@
       <c r="J16" s="87"/>
       <c r="K16" s="80"/>
     </row>
-    <row r="17" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>343</v>
       </c>
@@ -42626,7 +42636,7 @@
       <c r="I17" s="90"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>345</v>
       </c>
@@ -42652,7 +42662,7 @@
       <c r="I18" s="90"/>
       <c r="J18" s="87"/>
     </row>
-    <row r="19" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91"/>
       <c r="B19" s="99"/>
       <c r="C19" s="94"/>
@@ -42664,7 +42674,7 @@
       <c r="I19" s="97"/>
       <c r="J19" s="98"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>346</v>
       </c>
@@ -42682,7 +42692,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>347</v>
       </c>
@@ -42708,7 +42718,7 @@
       <c r="I21" s="90"/>
       <c r="J21" s="87"/>
     </row>
-    <row r="22" spans="1:10" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
         <v>348</v>
       </c>
@@ -42735,7 +42745,7 @@
       <c r="I22" s="90"/>
       <c r="J22" s="87"/>
     </row>
-    <row r="23" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
         <v>349</v>
       </c>
@@ -42762,7 +42772,7 @@
       <c r="I23" s="90"/>
       <c r="J23" s="87"/>
     </row>
-    <row r="24" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="91"/>
       <c r="C24" s="94"/>
       <c r="D24" s="94"/>
@@ -42771,7 +42781,7 @@
       <c r="I24" s="97"/>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>350</v>
       </c>
@@ -42786,7 +42796,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>352</v>
       </c>
@@ -42812,7 +42822,7 @@
       <c r="I26" s="90"/>
       <c r="J26" s="87"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
         <v>354</v>
       </c>
@@ -42838,7 +42848,7 @@
       <c r="I27" s="90"/>
       <c r="J27" s="87"/>
     </row>
-    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
         <v>356</v>
       </c>
@@ -42864,7 +42874,7 @@
       <c r="I28" s="90"/>
       <c r="J28" s="87"/>
     </row>
-    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="70" t="s">
         <v>358</v>
       </c>
@@ -42890,7 +42900,7 @@
       <c r="I29" s="90"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="70" t="s">
         <v>360</v>
       </c>
@@ -42916,7 +42926,7 @@
       <c r="I30" s="90"/>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="70" t="s">
         <v>362</v>
       </c>
@@ -42942,7 +42952,7 @@
       <c r="I31" s="90"/>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
         <v>364</v>
       </c>
@@ -42968,7 +42978,7 @@
       <c r="I32" s="90"/>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
         <v>365</v>
       </c>
@@ -42994,7 +43004,7 @@
       <c r="I33" s="90"/>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="70" t="s">
         <v>366</v>
       </c>
@@ -43020,7 +43030,7 @@
       <c r="I34" s="90"/>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
         <v>367</v>
       </c>
@@ -43047,7 +43057,7 @@
       <c r="I35" s="90"/>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="1:11" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="74" t="s">
         <v>466</v>
       </c>
@@ -43074,7 +43084,7 @@
       <c r="I36" s="90"/>
       <c r="J36" s="87"/>
     </row>
-    <row r="37" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="91"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
@@ -43083,7 +43093,7 @@
       <c r="I37" s="97"/>
       <c r="J37" s="98"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
         <v>369</v>
       </c>
@@ -43098,7 +43108,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="72" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="71" t="s">
         <v>371</v>
       </c>
@@ -43126,7 +43136,7 @@
       <c r="J39" s="87"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="74" t="s">
         <v>372</v>
       </c>
@@ -43149,7 +43159,7 @@
       <c r="I40" s="90"/>
       <c r="J40" s="87"/>
     </row>
-    <row r="41" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="74" t="s">
         <v>373</v>
       </c>
@@ -43176,7 +43186,7 @@
       <c r="I41" s="90"/>
       <c r="J41" s="87"/>
     </row>
-    <row r="42" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
         <v>375</v>
       </c>
@@ -43202,7 +43212,7 @@
       <c r="I42" s="90"/>
       <c r="J42" s="87"/>
     </row>
-    <row r="43" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="91"/>
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
@@ -43211,7 +43221,7 @@
       <c r="I43" s="97"/>
       <c r="J43" s="98"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="70" t="s">
         <v>376</v>
       </c>
@@ -43226,7 +43236,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="70" t="s">
         <v>378</v>
       </c>
@@ -43252,7 +43262,7 @@
       <c r="I45" s="90"/>
       <c r="J45" s="87"/>
     </row>
-    <row r="46" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
         <v>379</v>
       </c>
@@ -43279,7 +43289,7 @@
       <c r="I46" s="90"/>
       <c r="J46" s="87"/>
     </row>
-    <row r="47" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
         <v>380</v>
       </c>
@@ -43306,7 +43316,7 @@
       <c r="I47" s="90"/>
       <c r="J47" s="87"/>
     </row>
-    <row r="48" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="91"/>
       <c r="C48" s="94"/>
       <c r="D48" s="94"/>
@@ -43315,7 +43325,7 @@
       <c r="I48" s="97"/>
       <c r="J48" s="98"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
         <v>381</v>
       </c>
@@ -43330,7 +43340,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="70" t="s">
         <v>383</v>
       </c>
@@ -43356,7 +43366,7 @@
       <c r="I50" s="90"/>
       <c r="J50" s="87"/>
     </row>
-    <row r="51" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
         <v>384</v>
       </c>
@@ -43383,7 +43393,7 @@
       <c r="I51" s="90"/>
       <c r="J51" s="87"/>
     </row>
-    <row r="52" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
         <v>385</v>
       </c>
@@ -43410,7 +43420,7 @@
       <c r="I52" s="90"/>
       <c r="J52" s="87"/>
     </row>
-    <row r="53" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
         <v>387</v>
       </c>
@@ -43437,7 +43447,7 @@
       <c r="I53" s="90"/>
       <c r="J53" s="87"/>
     </row>
-    <row r="54" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
         <v>389</v>
       </c>
@@ -43464,7 +43474,7 @@
       <c r="I54" s="90"/>
       <c r="J54" s="87"/>
     </row>
-    <row r="55" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="74" t="s">
         <v>390</v>
       </c>
@@ -43491,7 +43501,7 @@
       <c r="I55" s="90"/>
       <c r="J55" s="87"/>
     </row>
-    <row r="56" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="91"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
@@ -43499,7 +43509,7 @@
       <c r="I56" s="97"/>
       <c r="J56" s="98"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="70" t="s">
         <v>392</v>
       </c>
@@ -43514,7 +43524,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="76" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" s="76" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="74" t="s">
         <v>394</v>
       </c>
@@ -43541,7 +43551,7 @@
       <c r="I58" s="90"/>
       <c r="J58" s="87"/>
     </row>
-    <row r="59" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="74" t="s">
         <v>395</v>
       </c>
@@ -43568,7 +43578,7 @@
       <c r="I59" s="90"/>
       <c r="J59" s="87"/>
     </row>
-    <row r="60" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="74" t="s">
         <v>396</v>
       </c>
@@ -43595,7 +43605,7 @@
       <c r="I60" s="90"/>
       <c r="J60" s="87"/>
     </row>
-    <row r="61" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="91"/>
       <c r="C61" s="94"/>
       <c r="D61" s="94"/>
@@ -43604,7 +43614,7 @@
       <c r="I61" s="94"/>
       <c r="J61" s="98"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="70" t="s">
         <v>398</v>
       </c>
@@ -43619,7 +43629,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="74" t="s">
         <v>400</v>
       </c>
@@ -43647,7 +43657,7 @@
       <c r="J63" s="87"/>
       <c r="K63" s="100"/>
     </row>
-    <row r="64" spans="1:11" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="74" t="s">
         <v>402</v>
       </c>
@@ -43674,7 +43684,7 @@
       <c r="I64" s="90"/>
       <c r="J64" s="87"/>
     </row>
-    <row r="65" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="74" t="s">
         <v>404</v>
       </c>
@@ -43701,7 +43711,7 @@
       <c r="I65" s="90"/>
       <c r="J65" s="87"/>
     </row>
-    <row r="66" spans="1:11" s="76" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="74" t="s">
         <v>405</v>
       </c>
@@ -43728,7 +43738,7 @@
       <c r="I66" s="90"/>
       <c r="J66" s="87"/>
     </row>
-    <row r="67" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="74" t="s">
         <v>406</v>
       </c>
@@ -43755,7 +43765,7 @@
       <c r="I67" s="90"/>
       <c r="J67" s="87"/>
     </row>
-    <row r="68" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="70" t="s">
         <v>408</v>
       </c>
@@ -43781,7 +43791,7 @@
       <c r="I68" s="90"/>
       <c r="J68" s="87"/>
     </row>
-    <row r="69" spans="1:11" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="74" t="s">
         <v>410</v>
       </c>
@@ -43808,7 +43818,7 @@
       <c r="I69" s="90"/>
       <c r="J69" s="87"/>
     </row>
-    <row r="70" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="74" t="s">
         <v>412</v>
       </c>
@@ -43836,7 +43846,7 @@
       <c r="J70" s="87"/>
       <c r="K70" s="100"/>
     </row>
-    <row r="71" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="70" t="s">
         <v>413</v>
       </c>
@@ -43862,7 +43872,7 @@
       <c r="I71" s="90"/>
       <c r="J71" s="87"/>
     </row>
-    <row r="72" spans="1:11" s="76" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="76" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="74" t="s">
         <v>415</v>
       </c>
@@ -43889,7 +43899,7 @@
       <c r="I72" s="90"/>
       <c r="J72" s="87"/>
     </row>
-    <row r="73" spans="1:11" s="72" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="71" t="s">
         <v>416</v>
       </c>
@@ -43916,7 +43926,7 @@
       <c r="I73" s="90"/>
       <c r="J73" s="87"/>
     </row>
-    <row r="74" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
         <v>417</v>
       </c>
@@ -43942,7 +43952,7 @@
       <c r="I74" s="90"/>
       <c r="J74" s="87"/>
     </row>
-    <row r="75" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="91"/>
       <c r="C75" s="94"/>
       <c r="D75" s="94"/>
@@ -43951,7 +43961,7 @@
       <c r="I75" s="97"/>
       <c r="J75" s="98"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="70" t="s">
         <v>418</v>
       </c>
@@ -43966,7 +43976,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="74" t="s">
         <v>420</v>
       </c>
@@ -43993,7 +44003,7 @@
       <c r="I77" s="90"/>
       <c r="J77" s="87"/>
     </row>
-    <row r="78" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
         <v>421</v>
       </c>
@@ -44019,7 +44029,7 @@
       <c r="I78" s="90"/>
       <c r="J78" s="87"/>
     </row>
-    <row r="79" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="70" t="s">
         <v>423</v>
       </c>
@@ -44045,7 +44055,7 @@
       <c r="I79" s="90"/>
       <c r="J79" s="87"/>
     </row>
-    <row r="80" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="91"/>
       <c r="C80" s="94"/>
       <c r="D80" s="94"/>
@@ -44053,7 +44063,7 @@
       <c r="I80" s="97"/>
       <c r="J80" s="98"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="70" t="s">
         <v>424</v>
       </c>
@@ -44068,7 +44078,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="70" t="s">
         <v>426</v>
       </c>
@@ -44094,7 +44104,7 @@
       <c r="I82" s="90"/>
       <c r="J82" s="87"/>
     </row>
-    <row r="83" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="70" t="s">
         <v>428</v>
       </c>
@@ -44120,7 +44130,7 @@
       <c r="I83" s="90"/>
       <c r="J83" s="87"/>
     </row>
-    <row r="84" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="91"/>
       <c r="B84" s="91"/>
       <c r="C84" s="94"/>
@@ -44129,7 +44139,7 @@
       <c r="I84" s="97"/>
       <c r="J84" s="98"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B85" s="116" t="s">
         <v>454</v>
       </c>
@@ -44141,7 +44151,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B86" s="18"/>
       <c r="C86" s="79" t="s">
         <v>337</v>
@@ -44161,7 +44171,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I87" s="86" t="s">
         <v>445</v>
       </c>
@@ -44169,7 +44179,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I88" s="86" t="s">
         <v>445</v>
       </c>
@@ -44177,7 +44187,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I89" s="86" t="s">
         <v>445</v>
       </c>
@@ -44185,7 +44195,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I90" s="86" t="s">
         <v>445</v>
       </c>
@@ -44193,7 +44203,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I91" s="86" t="s">
         <v>445</v>
       </c>
@@ -44201,7 +44211,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I92" s="86" t="s">
         <v>445</v>
       </c>
@@ -44209,7 +44219,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I93" s="86" t="s">
         <v>445</v>
       </c>
@@ -44217,7 +44227,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I94" s="86" t="s">
         <v>445</v>
       </c>
@@ -44225,7 +44235,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I95" s="86" t="s">
         <v>445</v>
       </c>
@@ -44233,7 +44243,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I96" s="86" t="s">
         <v>445</v>
       </c>
@@ -44241,7 +44251,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I97" s="86" t="s">
         <v>445</v>
       </c>
@@ -44249,7 +44259,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I98" s="86" t="s">
         <v>445</v>
       </c>
@@ -44257,7 +44267,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I99" s="86" t="s">
         <v>445</v>
       </c>
@@ -44265,7 +44275,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I100" s="86" t="s">
         <v>445</v>
       </c>
@@ -44273,7 +44283,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I101" s="86" t="s">
         <v>445</v>
       </c>
@@ -44281,7 +44291,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I102" s="86" t="s">
         <v>445</v>
       </c>
@@ -44289,7 +44299,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I103" s="86" t="s">
         <v>445</v>
       </c>
@@ -44297,7 +44307,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I104" s="86" t="s">
         <v>445</v>
       </c>
@@ -44305,7 +44315,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I105" s="86" t="s">
         <v>445</v>
       </c>
@@ -44313,7 +44323,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I106" s="86" t="s">
         <v>445</v>
       </c>
@@ -44321,7 +44331,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I107" s="86" t="s">
         <v>445</v>
       </c>
@@ -44329,7 +44339,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I108" s="86" t="s">
         <v>445</v>
       </c>
@@ -44337,7 +44347,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I109" s="86" t="s">
         <v>445</v>
       </c>
@@ -44345,7 +44355,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I110" s="86" t="s">
         <v>445</v>
       </c>
@@ -44353,7 +44363,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I111" s="86" t="s">
         <v>445</v>
       </c>
@@ -44361,7 +44371,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I112" s="86" t="s">
         <v>445</v>
       </c>
@@ -44369,7 +44379,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I113" s="86" t="s">
         <v>445</v>
       </c>
@@ -44377,7 +44387,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I114" s="86" t="s">
         <v>445</v>
       </c>
@@ -44385,7 +44395,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I115" s="86" t="s">
         <v>445</v>
       </c>
@@ -44393,7 +44403,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I116" s="86" t="s">
         <v>445</v>
       </c>
@@ -44401,7 +44411,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I117" s="86" t="s">
         <v>445</v>
       </c>
@@ -44409,7 +44419,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I118" s="86" t="s">
         <v>445</v>
       </c>
@@ -44417,32 +44427,32 @@
         <v>445</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J119" s="87" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J120" s="87" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J121" s="87" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J122" s="87" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J123" s="87" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J124" s="87" t="s">
         <v>445</v>
       </c>
@@ -44936,18 +44946,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="67.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>112</v>
       </c>
@@ -44958,7 +44968,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>113</v>
       </c>
@@ -44969,7 +44979,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>114</v>
       </c>
@@ -44980,7 +44990,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>115</v>
       </c>
@@ -44991,7 +45001,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>116</v>
       </c>
@@ -45000,7 +45010,7 @@
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:3" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>117</v>
       </c>
@@ -45011,7 +45021,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>118</v>
       </c>
@@ -45022,7 +45032,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>119</v>
       </c>
@@ -45033,7 +45043,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>120</v>
       </c>
@@ -45044,7 +45054,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>10</v>
       </c>
@@ -45071,18 +45081,18 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="84" style="5" customWidth="1"/>
-    <col min="2" max="2" width="70.1796875" style="5" customWidth="1"/>
-    <col min="3" max="6" width="9.1796875" style="5"/>
-    <col min="7" max="7" width="9.1796875" style="25"/>
-    <col min="8" max="9" width="9.1796875" style="5"/>
-    <col min="10" max="10" width="9.1796875" style="25"/>
-    <col min="11" max="16384" width="9.1796875" style="5"/>
+    <col min="2" max="2" width="70.140625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="9.140625" style="25"/>
+    <col min="8" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="25"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>104</v>
       </c>
@@ -45090,74 +45100,74 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
   </sheetData>
@@ -45174,13 +45184,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>431</v>
       </c>
@@ -45191,7 +45201,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>90</v>
       </c>
@@ -45205,7 +45215,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>91</v>
       </c>
@@ -45219,7 +45229,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>88</v>
       </c>
@@ -45233,17 +45243,17 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>433</v>
       </c>
@@ -45254,18 +45264,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45486,14 +45496,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8E72E-01C3-4A90-A13D-D95FFDEBE7BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27C61CDB-0D2F-40B2-80EB-B5C2BB1999ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -45506,6 +45508,14 @@
     <ds:schemaRef ds:uri="d3b3fe64-6279-4487-bae7-5a5e7ea037f8"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8E72E-01C3-4A90-A13D-D95FFDEBE7BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
